--- a/biology/Botanique/Tragus_(plante)/Tragus_(plante).xlsx
+++ b/biology/Botanique/Tragus_(plante)/Tragus_(plante).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tragus est un genre de plantes monocotylédones de la famille des Poaceae, sous-famille des Chloridoideae, originaire principalement d'Afrique (une espèce ayant une distribution pantropicale), qui comprend huit espèces acceptées.
 L'espèce-type est Tragus racemosus.
-Plusieurs espèces (Tragus berteronianus, Tragus racemosus, Tragus roxburghii) sont des mauvaises herbes ayant une importance économique significative[2].
+Plusieurs espèces (Tragus berteronianus, Tragus racemosus, Tragus roxburghii) sont des mauvaises herbes ayant une importance économique significative.
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (27 mars 2017)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (27 mars 2017) :
 Tragus andicola M.A.Zapater &amp; Sulekic (2001)
 Tragus australianus S.T.Blake (1941)
 Tragus berteronianus Schult. (1824)
@@ -551,9 +565,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Plant List            (27-03-2017)[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Plant List            (27-03-2017) :
 Lappago Schreb. (1789), nom. superfl.,
 Nazia Adans. (1763),
 Echisachys Neck. (1790),
